--- a/mc-table.xlsx
+++ b/mc-table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,6 +439,72 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="1" customWidth="1" min="1" max="1"/>
+    <col width="1" customWidth="1" min="2" max="2"/>
+    <col width="1" customWidth="1" min="3" max="3"/>
+    <col width="1" customWidth="1" min="4" max="4"/>
+    <col width="1" customWidth="1" min="5" max="5"/>
+    <col width="1" customWidth="1" min="6" max="6"/>
+    <col width="2" customWidth="1" min="7" max="7"/>
+    <col width="2" customWidth="1" min="8" max="8"/>
+    <col width="2" customWidth="1" min="9" max="9"/>
+    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="2" customWidth="1" min="11" max="11"/>
+    <col width="2" customWidth="1" min="12" max="12"/>
+    <col width="2" customWidth="1" min="13" max="13"/>
+    <col width="2" customWidth="1" min="14" max="14"/>
+    <col width="2" customWidth="1" min="15" max="15"/>
+    <col width="2" customWidth="1" min="16" max="16"/>
+    <col width="2" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="2" customWidth="1" min="19" max="19"/>
+    <col width="2" customWidth="1" min="20" max="20"/>
+    <col width="2" customWidth="1" min="21" max="21"/>
+    <col width="3" customWidth="1" min="22" max="22"/>
+    <col width="3" customWidth="1" min="23" max="23"/>
+    <col width="3" customWidth="1" min="24" max="24"/>
+    <col width="3" customWidth="1" min="25" max="25"/>
+    <col width="3" customWidth="1" min="26" max="26"/>
+    <col width="3" customWidth="1" min="27" max="27"/>
+    <col width="3" customWidth="1" min="28" max="28"/>
+    <col width="3" customWidth="1" min="29" max="29"/>
+    <col width="3" customWidth="1" min="30" max="30"/>
+    <col width="3" customWidth="1" min="31" max="31"/>
+    <col width="3" customWidth="1" min="32" max="32"/>
+    <col width="3" customWidth="1" min="33" max="33"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="3" customWidth="1" min="35" max="35"/>
+    <col width="3" customWidth="1" min="36" max="36"/>
+    <col width="3" customWidth="1" min="37" max="37"/>
+    <col width="3" customWidth="1" min="38" max="38"/>
+    <col width="3" customWidth="1" min="39" max="39"/>
+    <col width="3" customWidth="1" min="40" max="40"/>
+    <col width="3" customWidth="1" min="41" max="41"/>
+    <col width="4" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="4" customWidth="1" min="45" max="45"/>
+    <col width="4" customWidth="1" min="46" max="46"/>
+    <col width="4" customWidth="1" min="47" max="47"/>
+    <col width="4" customWidth="1" min="48" max="48"/>
+    <col width="4" customWidth="1" min="49" max="49"/>
+    <col width="4" customWidth="1" min="50" max="50"/>
+    <col width="4" customWidth="1" min="51" max="51"/>
+    <col width="4" customWidth="1" min="52" max="52"/>
+    <col width="4" customWidth="1" min="53" max="53"/>
+    <col width="4" customWidth="1" min="54" max="54"/>
+    <col width="4" customWidth="1" min="55" max="55"/>
+    <col width="4" customWidth="1" min="56" max="56"/>
+    <col width="5" customWidth="1" min="57" max="57"/>
+    <col width="5" customWidth="1" min="58" max="58"/>
+    <col width="5" customWidth="1" min="59" max="59"/>
+    <col width="5" customWidth="1" min="60" max="60"/>
+    <col width="5" customWidth="1" min="61" max="61"/>
+    <col width="5" customWidth="1" min="62" max="62"/>
+    <col width="6" customWidth="1" min="63" max="63"/>
+    <col width="1" customWidth="1" min="64" max="64"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">

--- a/mc-table.xlsx
+++ b/mc-table.xlsx
@@ -47,7 +47,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -55,16 +55,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left>
+        <color rgb="00000000"/>
+      </left>
+      <right>
+        <color rgb="00000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,70 +448,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1" customWidth="1" min="1" max="1"/>
-    <col width="1" customWidth="1" min="2" max="2"/>
-    <col width="1" customWidth="1" min="3" max="3"/>
-    <col width="1" customWidth="1" min="4" max="4"/>
-    <col width="1" customWidth="1" min="5" max="5"/>
-    <col width="1" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
-    <col width="2" customWidth="1" min="11" max="11"/>
-    <col width="2" customWidth="1" min="12" max="12"/>
-    <col width="2" customWidth="1" min="13" max="13"/>
-    <col width="2" customWidth="1" min="14" max="14"/>
-    <col width="2" customWidth="1" min="15" max="15"/>
-    <col width="2" customWidth="1" min="16" max="16"/>
-    <col width="2" customWidth="1" min="17" max="17"/>
-    <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="2" customWidth="1" min="19" max="19"/>
-    <col width="2" customWidth="1" min="20" max="20"/>
-    <col width="2" customWidth="1" min="21" max="21"/>
-    <col width="3" customWidth="1" min="22" max="22"/>
-    <col width="3" customWidth="1" min="23" max="23"/>
-    <col width="3" customWidth="1" min="24" max="24"/>
-    <col width="3" customWidth="1" min="25" max="25"/>
-    <col width="3" customWidth="1" min="26" max="26"/>
-    <col width="3" customWidth="1" min="27" max="27"/>
-    <col width="3" customWidth="1" min="28" max="28"/>
-    <col width="3" customWidth="1" min="29" max="29"/>
-    <col width="3" customWidth="1" min="30" max="30"/>
-    <col width="3" customWidth="1" min="31" max="31"/>
-    <col width="3" customWidth="1" min="32" max="32"/>
-    <col width="3" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="3" customWidth="1" min="35" max="35"/>
-    <col width="3" customWidth="1" min="36" max="36"/>
-    <col width="3" customWidth="1" min="37" max="37"/>
-    <col width="3" customWidth="1" min="38" max="38"/>
-    <col width="3" customWidth="1" min="39" max="39"/>
-    <col width="3" customWidth="1" min="40" max="40"/>
-    <col width="3" customWidth="1" min="41" max="41"/>
-    <col width="4" customWidth="1" min="42" max="42"/>
-    <col width="4" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
-    <col width="4" customWidth="1" min="45" max="45"/>
-    <col width="4" customWidth="1" min="46" max="46"/>
-    <col width="4" customWidth="1" min="47" max="47"/>
-    <col width="4" customWidth="1" min="48" max="48"/>
-    <col width="4" customWidth="1" min="49" max="49"/>
-    <col width="4" customWidth="1" min="50" max="50"/>
-    <col width="4" customWidth="1" min="51" max="51"/>
-    <col width="4" customWidth="1" min="52" max="52"/>
-    <col width="4" customWidth="1" min="53" max="53"/>
-    <col width="4" customWidth="1" min="54" max="54"/>
-    <col width="4" customWidth="1" min="55" max="55"/>
-    <col width="4" customWidth="1" min="56" max="56"/>
-    <col width="5" customWidth="1" min="57" max="57"/>
-    <col width="5" customWidth="1" min="58" max="58"/>
-    <col width="5" customWidth="1" min="59" max="59"/>
-    <col width="5" customWidth="1" min="60" max="60"/>
-    <col width="5" customWidth="1" min="61" max="61"/>
-    <col width="5" customWidth="1" min="62" max="62"/>
-    <col width="6" customWidth="1" min="63" max="63"/>
-    <col width="1" customWidth="1" min="64" max="64"/>
+    <col width="2" customWidth="1" min="1" max="1"/>
+    <col width="2" customWidth="1" min="2" max="2"/>
+    <col width="2" customWidth="1" min="3" max="3"/>
+    <col width="2" customWidth="1" min="4" max="4"/>
+    <col width="2" customWidth="1" min="5" max="5"/>
+    <col width="2" customWidth="1" min="6" max="6"/>
+    <col width="3" customWidth="1" min="7" max="7"/>
+    <col width="3" customWidth="1" min="8" max="8"/>
+    <col width="3" customWidth="1" min="9" max="9"/>
+    <col width="3" customWidth="1" min="10" max="10"/>
+    <col width="3" customWidth="1" min="11" max="11"/>
+    <col width="3" customWidth="1" min="12" max="12"/>
+    <col width="3" customWidth="1" min="13" max="13"/>
+    <col width="3" customWidth="1" min="14" max="14"/>
+    <col width="3" customWidth="1" min="15" max="15"/>
+    <col width="3" customWidth="1" min="16" max="16"/>
+    <col width="3" customWidth="1" min="17" max="17"/>
+    <col width="3" customWidth="1" min="18" max="18"/>
+    <col width="3" customWidth="1" min="19" max="19"/>
+    <col width="3" customWidth="1" min="20" max="20"/>
+    <col width="3" customWidth="1" min="21" max="21"/>
+    <col width="4" customWidth="1" min="22" max="22"/>
+    <col width="4" customWidth="1" min="23" max="23"/>
+    <col width="4" customWidth="1" min="24" max="24"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="27" max="27"/>
+    <col width="4" customWidth="1" min="28" max="28"/>
+    <col width="4" customWidth="1" min="29" max="29"/>
+    <col width="4" customWidth="1" min="30" max="30"/>
+    <col width="4" customWidth="1" min="31" max="31"/>
+    <col width="4" customWidth="1" min="32" max="32"/>
+    <col width="4" customWidth="1" min="33" max="33"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="36" max="36"/>
+    <col width="4" customWidth="1" min="37" max="37"/>
+    <col width="4" customWidth="1" min="38" max="38"/>
+    <col width="4" customWidth="1" min="39" max="39"/>
+    <col width="4" customWidth="1" min="40" max="40"/>
+    <col width="4" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="45" max="45"/>
+    <col width="5" customWidth="1" min="46" max="46"/>
+    <col width="5" customWidth="1" min="47" max="47"/>
+    <col width="5" customWidth="1" min="48" max="48"/>
+    <col width="5" customWidth="1" min="49" max="49"/>
+    <col width="5" customWidth="1" min="50" max="50"/>
+    <col width="5" customWidth="1" min="51" max="51"/>
+    <col width="5" customWidth="1" min="52" max="52"/>
+    <col width="5" customWidth="1" min="53" max="53"/>
+    <col width="5" customWidth="1" min="54" max="54"/>
+    <col width="5" customWidth="1" min="55" max="55"/>
+    <col width="5" customWidth="1" min="56" max="56"/>
+    <col width="6" customWidth="1" min="57" max="57"/>
+    <col width="6" customWidth="1" min="58" max="58"/>
+    <col width="6" customWidth="1" min="59" max="59"/>
+    <col width="6" customWidth="1" min="60" max="60"/>
+    <col width="6" customWidth="1" min="61" max="61"/>
+    <col width="6" customWidth="1" min="62" max="62"/>
+    <col width="7" customWidth="1" min="63" max="63"/>
+    <col width="2" customWidth="1" min="64" max="64"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/mc-table.xlsx
+++ b/mc-table.xlsx
@@ -38,7 +38,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00969696"/>
+        <fgColor rgb="00C0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -56,10 +56,10 @@
       <diagonal/>
     </border>
     <border>
-      <left>
+      <left style="thin">
         <color rgb="00000000"/>
       </left>
-      <right>
+      <right style="thin">
         <color rgb="00000000"/>
       </right>
     </border>
